--- a/excel/templates/chequetemplate.xlsx
+++ b/excel/templates/chequetemplate.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikolay/Documents/MPrating/release/MPrating-dev/excel/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikolay/trunks/WBB/target/excel/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E322A6-04A4-C342-B7D4-23E9FC62F628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B8D224-FE56-4240-AC79-40138A111FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" xr2:uid="{09EB10F6-87EF-4346-8EAF-2924021A5A12}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>ФИО</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Код</t>
+  </si>
+  <si>
+    <t>Название</t>
   </si>
 </sst>
 </file>
@@ -107,7 +110,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -115,12 +118,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -442,7 +442,7 @@
   <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -451,7 +451,7 @@
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
     <col min="3" max="3" width="52" style="1" customWidth="1"/>
     <col min="4" max="4" width="81.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="39.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="1" customWidth="1"/>
     <col min="7" max="7" width="27.83203125" customWidth="1"/>
     <col min="8" max="8" width="7.6640625" customWidth="1"/>
@@ -462,22 +462,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>

--- a/excel/templates/chequetemplate.xlsx
+++ b/excel/templates/chequetemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikolay/trunks/WBB/target/excel/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/trunks/WBB/target/excel/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B8D224-FE56-4240-AC79-40138A111FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B85FD0F-1368-C44C-87B6-BFD97628338D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" xr2:uid="{09EB10F6-87EF-4346-8EAF-2924021A5A12}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{09EB10F6-87EF-4346-8EAF-2924021A5A12}"/>
   </bookViews>
   <sheets>
     <sheet name="Чеки" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>ФИО</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>Название</t>
+  </si>
+  <si>
+    <t>Сумма</t>
   </si>
 </sst>
 </file>
@@ -441,8 +444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4C5DCFB-D76E-EE4F-B8D2-546F2C037FD7}">
   <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -453,7 +456,7 @@
     <col min="4" max="4" width="81.33203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="39.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="1" customWidth="1"/>
-    <col min="7" max="7" width="27.83203125" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" customWidth="1"/>
     <col min="8" max="8" width="7.6640625" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
     <col min="10" max="10" width="17.83203125" customWidth="1"/>
@@ -480,7 +483,9 @@
       <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="4"/>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
